--- a/src/assets/excel-sample/Beneficiary-Sample.xlsx
+++ b/src/assets/excel-sample/Beneficiary-Sample.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Year</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>School/College</t>
+  </si>
+  <si>
+    <t>50000 ₹</t>
   </si>
 </sst>
 </file>
@@ -83,9 +86,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,7 +430,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="A3:E3"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -434,7 +439,7 @@
     <col min="2" max="2" width="34.125" customWidth="1"/>
     <col min="3" max="3" width="30.625" customWidth="1"/>
     <col min="4" max="4" width="17.25" customWidth="1"/>
-    <col min="5" max="5" width="15.75" customWidth="1"/>
+    <col min="5" max="5" width="15.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -450,7 +455,7 @@
       <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -467,8 +472,8 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2">
-        <v>50000</v>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/excel-sample/Beneficiary-Sample.xlsx
+++ b/src/assets/excel-sample/Beneficiary-Sample.xlsx
@@ -430,7 +430,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/src/assets/excel-sample/Beneficiary-Sample.xlsx
+++ b/src/assets/excel-sample/Beneficiary-Sample.xlsx
@@ -34,9 +34,6 @@
     <t>Std-9</t>
   </si>
   <si>
-    <t>Refund Amount</t>
-  </si>
-  <si>
     <t>Course</t>
   </si>
   <si>
@@ -44,13 +41,29 @@
   </si>
   <si>
     <t>50000 ₹</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Refund Amount 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Note:Cell Format :Text</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -62,6 +75,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -88,9 +108,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,7 +454,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -439,24 +463,24 @@
     <col min="2" max="2" width="34.125" customWidth="1"/>
     <col min="3" max="3" width="30.625" customWidth="1"/>
     <col min="4" max="4" width="17.25" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="39.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E1" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -472,8 +496,8 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
